--- a/기획서.xlsx
+++ b/기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DRD\DRD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA41E20B-3D6E-45B4-AC2B-8B444508514A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5EC44C-1F80-4937-B082-776338A313DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="1005" windowWidth="25860" windowHeight="14460" activeTab="2" xr2:uid="{86639CBE-BC0C-4D70-B7A4-F0FFD510A644}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>DRD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>공격력, 사거리, 공격속도, 3가지의 기본 스탯과 패시브 스킬, 액티브 스킬 2가지를 가지고 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격에는 기본 공격, 스킬 공격이 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격은 공격력x1의 단일 타겟 데미지, 스킬 공격은 공격력에 비례한 단일/범위 데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,10 +969,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6107802-0644-485C-8D6D-C1A1BBF06604}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:F12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -995,8 +1007,24 @@
         <v>55</v>
       </c>
     </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>